--- a/cv_13/data/dvora135_EMB-cv_13-data.xlsx
+++ b/cv_13/data/dvora135_EMB-cv_13-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvorakj/Disk Google/Sdílené složky/Škola_shared/3_semestr/EMB/Cv/Protokoly/cv_13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2CC4F7-3ADE-D746-A655-FC4D30A3DF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D038B705-1FD6-8E46-9BFE-DB6AEB02C4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4720" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{A2B26420-1ED1-6C44-96BC-EA2064606AC4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>$\alpha$ (\textdegree)</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>$U_\text{2}$ (mV)</t>
+  </si>
+  <si>
+    <t>MASTER</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -101,13 +104,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -422,422 +473,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8311B3C-6673-7046-89A2-475A6EA545FE}">
-  <dimension ref="A7:C63"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>-1.7654000000000001</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>-1.6968000000000001</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>49.042999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>70</v>
+      </c>
+      <c r="H4">
+        <v>45.530999999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>70</v>
+      </c>
+      <c r="K4">
+        <v>48.470999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>-1.6325000000000001</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>97.644999999999996</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>88.932000000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>93.947000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>-1.5645</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>150.57</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>135.68</v>
+      </c>
+      <c r="J6" s="1">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>142.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-1.5047999999999999</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>198.97</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>177.51</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>184.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-1.4666999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>230.76</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>204.62</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>211.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B9">
-        <v>-1.7654000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="D9">
+        <v>110</v>
+      </c>
+      <c r="E9">
+        <v>-48.116</v>
+      </c>
+      <c r="G9" s="1">
+        <v>110</v>
+      </c>
+      <c r="H9">
+        <v>-45.134999999999998</v>
+      </c>
+      <c r="J9" s="1">
+        <v>110</v>
+      </c>
+      <c r="K9">
+        <v>-48.953000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B10">
-        <v>-1.6968000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.9051</v>
+      </c>
+      <c r="D10">
+        <v>130</v>
+      </c>
+      <c r="E10">
+        <v>-94.335999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>130</v>
+      </c>
+      <c r="H10">
+        <v>-89.805000000000007</v>
+      </c>
+      <c r="J10" s="1">
+        <v>130</v>
+      </c>
+      <c r="K10">
+        <v>-98.126000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="B11">
-        <v>-1.6325000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.9767999999999999</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <v>-141.08000000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>150</v>
+      </c>
+      <c r="H11">
+        <v>-135.19999999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>150</v>
+      </c>
+      <c r="K11">
+        <v>-149.46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="B12">
-        <v>-1.5645</v>
+        <v>-2.0415000000000001</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>170</v>
+      </c>
+      <c r="E12">
+        <v>-181.16</v>
+      </c>
+      <c r="G12" s="1">
+        <v>170</v>
+      </c>
+      <c r="H12">
+        <v>-175.15</v>
+      </c>
+      <c r="J12" s="1">
+        <v>170</v>
+      </c>
+      <c r="K12">
+        <v>-195.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>180</v>
+      </c>
+      <c r="B13">
+        <v>-2.0804999999999998</v>
+      </c>
+      <c r="D13">
+        <v>180</v>
+      </c>
+      <c r="E13">
+        <v>-204.52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>180</v>
+      </c>
+      <c r="H13">
+        <v>-198.82</v>
+      </c>
+      <c r="J13" s="1">
+        <v>180</v>
+      </c>
+      <c r="K13">
+        <v>-222.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>90</v>
+      </c>
+      <c r="B22" s="5">
+        <v>-1.7654000000000001</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-1.6968000000000001</v>
+      </c>
+      <c r="C23" s="2">
+        <v>49.042999999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45.530999999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>48.470999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-1.6325000000000001</v>
+      </c>
+      <c r="C24" s="2">
+        <v>97.644999999999996</v>
+      </c>
+      <c r="D24" s="2">
+        <v>88.932000000000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>93.947000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-1.5645</v>
+      </c>
+      <c r="C25" s="2">
+        <v>150.57</v>
+      </c>
+      <c r="D25" s="2">
+        <v>135.68</v>
+      </c>
+      <c r="E25" s="2">
+        <v>142.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B26" s="2">
         <v>-1.5047999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
+      <c r="C26" s="2">
+        <v>198.97</v>
+      </c>
+      <c r="D26" s="2">
+        <v>177.51</v>
+      </c>
+      <c r="E26" s="2">
+        <v>184.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
         <v>-1.4666999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="C27" s="2">
+        <v>230.76</v>
+      </c>
+      <c r="D27" s="2">
+        <v>204.62</v>
+      </c>
+      <c r="E27" s="2">
+        <v>211.23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>110</v>
       </c>
-      <c r="B15">
+      <c r="B28" s="2">
         <v>-1.8357000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C28" s="2">
+        <v>-48.116</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-45.134999999999998</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-48.953000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>130</v>
       </c>
-      <c r="B16">
+      <c r="B29" s="2">
         <v>-1.9051</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="C29" s="2">
+        <v>-94.335999999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-89.805000000000007</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-98.126000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>150</v>
       </c>
-      <c r="B17">
+      <c r="B30" s="2">
         <v>-1.9767999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="C30" s="2">
+        <v>-141.08000000000001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-135.19999999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-149.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>170</v>
       </c>
-      <c r="B18">
+      <c r="B31" s="2">
         <v>-2.0415000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="C31" s="2">
+        <v>-181.16</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-175.15</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-195.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>180</v>
       </c>
-      <c r="B19">
+      <c r="B32" s="2">
         <v>-2.0804999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>90</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>70</v>
-      </c>
-      <c r="B26">
-        <v>49.042999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>50</v>
-      </c>
-      <c r="B27">
-        <v>97.644999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>150.57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>198.97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>230.76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>110</v>
-      </c>
-      <c r="B31">
-        <v>-48.116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>130</v>
-      </c>
-      <c r="B32">
-        <v>-94.335999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>150</v>
-      </c>
-      <c r="B33">
-        <v>-141.08000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>170</v>
-      </c>
-      <c r="B34">
-        <v>-181.16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>180</v>
-      </c>
-      <c r="B35">
+      <c r="C32" s="2">
         <v>-204.52</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>90</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>70</v>
-      </c>
-      <c r="B40">
-        <v>45.530999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>50</v>
-      </c>
-      <c r="B41">
-        <v>88.932000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>30</v>
-      </c>
-      <c r="B42">
-        <v>135.68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>177.51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>0</v>
-      </c>
-      <c r="B44">
-        <v>204.62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>110</v>
-      </c>
-      <c r="B45">
-        <v>-45.134999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>130</v>
-      </c>
-      <c r="B46">
-        <v>-89.805000000000007</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>150</v>
-      </c>
-      <c r="B47">
-        <v>-135.19999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>170</v>
-      </c>
-      <c r="B48">
-        <v>-175.15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>180</v>
-      </c>
-      <c r="B49">
+      <c r="D32" s="2">
         <v>-198.82</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>90</v>
-      </c>
-      <c r="B53">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>70</v>
-      </c>
-      <c r="B54">
-        <v>48.470999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>50</v>
-      </c>
-      <c r="B55">
-        <v>93.947000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>30</v>
-      </c>
-      <c r="B56">
-        <v>142.03</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>10</v>
-      </c>
-      <c r="B57">
-        <v>184.28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>211.23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>110</v>
-      </c>
-      <c r="B59">
-        <v>-48.953000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>130</v>
-      </c>
-      <c r="B60">
-        <v>-98.126000000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>150</v>
-      </c>
-      <c r="B61">
-        <v>-149.46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>170</v>
-      </c>
-      <c r="B62">
-        <v>-195.67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>180</v>
-      </c>
-      <c r="B63">
+      <c r="E32" s="2">
         <v>-222.7</v>
       </c>
     </row>

--- a/cv_13/data/dvora135_EMB-cv_13-data.xlsx
+++ b/cv_13/data/dvora135_EMB-cv_13-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvorakj/Disk Google/Sdílené složky/Škola_shared/3_semestr/EMB/Cv/Protokoly/cv_13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D038B705-1FD6-8E46-9BFE-DB6AEB02C4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86AAF9-AFE5-6346-A0E2-0FA60ADC9363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4720" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{A2B26420-1ED1-6C44-96BC-EA2064606AC4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>$\alpha$ (\textdegree)</t>
   </si>
@@ -64,12 +64,49 @@
   </si>
   <si>
     <t>MASTER</t>
+  </si>
+  <si>
+    <t>$R_\text{BD}$ (mV)</t>
+  </si>
+  <si>
+    <t>$R_\text{2}$ (mV)</t>
+  </si>
+  <si>
+    <t>$\Delta R$ (\tohm)</t>
+  </si>
+  <si>
+    <t>$R_X (\tohm)</t>
+  </si>
+  <si>
+    <t>koncové body</t>
+  </si>
+  <si>
+    <t>0 st</t>
+  </si>
+  <si>
+    <t>180 st</t>
+  </si>
+  <si>
+    <t>směrnice</t>
+  </si>
+  <si>
+    <t>rozdíl</t>
+  </si>
+  <si>
+    <t>$\Delta U_\text{BD}$ (mV)</t>
+  </si>
+  <si>
+    <t>Linear (V)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -96,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -105,15 +142,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -129,7 +160,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -141,7 +172,154 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -151,14 +329,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -473,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8311B3C-6673-7046-89A2-475A6EA545FE}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="E23" zoomScale="117" workbookViewId="0">
+      <selection activeCell="P48" sqref="G37:P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,9 +691,12 @@
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="11" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -821,214 +1028,899 @@
         <v>-222.7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="G20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="G21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>90</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="7">
         <v>-1.7654000000000001</v>
       </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="G22" s="17">
+        <v>180</v>
+      </c>
+      <c r="H22" s="18">
+        <v>-2.0804999999999998</v>
+      </c>
+      <c r="I22" s="10">
+        <v>-204.52</v>
+      </c>
+      <c r="J22" s="18">
+        <v>-198.82</v>
+      </c>
+      <c r="K22" s="11">
+        <v>-222.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>70</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>-1.6968000000000001</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>49.042999999999999</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>45.530999999999999</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>48.470999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="G23" s="14">
+        <v>170</v>
+      </c>
+      <c r="H23" s="19">
+        <v>-2.0415000000000001</v>
+      </c>
+      <c r="I23" s="2">
+        <v>-181.16</v>
+      </c>
+      <c r="J23" s="19">
+        <v>-175.15</v>
+      </c>
+      <c r="K23" s="13">
+        <v>-195.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>50</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>-1.6325000000000001</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>97.644999999999996</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>88.932000000000002</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>93.947000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="G24" s="14">
+        <v>150</v>
+      </c>
+      <c r="H24" s="19">
+        <v>-1.9767999999999999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>-141.08000000000001</v>
+      </c>
+      <c r="J24" s="19">
+        <v>-135.19999999999999</v>
+      </c>
+      <c r="K24" s="13">
+        <v>-149.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>30</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>-1.5645</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>150.57</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>135.68</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>142.03</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="G25" s="14">
+        <v>130</v>
+      </c>
+      <c r="H25" s="19">
+        <v>-1.9051</v>
+      </c>
+      <c r="I25" s="2">
+        <v>-94.335999999999999</v>
+      </c>
+      <c r="J25" s="19">
+        <v>-89.805000000000007</v>
+      </c>
+      <c r="K25" s="13">
+        <v>-98.126000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>10</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>-1.5047999999999999</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>198.97</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>177.51</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>184.28</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="G26" s="14">
+        <v>110</v>
+      </c>
+      <c r="H26" s="19">
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="I26" s="2">
+        <v>-48.116</v>
+      </c>
+      <c r="J26" s="19">
+        <v>-45.134999999999998</v>
+      </c>
+      <c r="K26" s="13">
+        <v>-48.953000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4">
         <v>-1.4666999999999999</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>230.76</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>204.62</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <v>211.23</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="G27" s="14">
+        <v>90</v>
+      </c>
+      <c r="H27" s="19">
+        <v>-1.7654000000000001</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="19">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>110</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>-1.8357000000000001</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>-48.116</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>-45.134999999999998</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <v>-48.953000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="G28" s="14">
+        <v>70</v>
+      </c>
+      <c r="H28" s="19">
+        <v>-1.6968000000000001</v>
+      </c>
+      <c r="I28" s="2">
+        <v>49.042999999999999</v>
+      </c>
+      <c r="J28" s="19">
+        <v>45.530999999999999</v>
+      </c>
+      <c r="K28" s="13">
+        <v>48.470999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>130</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>-1.9051</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>-94.335999999999999</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>-89.805000000000007</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>-98.126000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="G29" s="14">
+        <v>50</v>
+      </c>
+      <c r="H29" s="19">
+        <v>-1.6325000000000001</v>
+      </c>
+      <c r="I29" s="2">
+        <v>97.644999999999996</v>
+      </c>
+      <c r="J29" s="19">
+        <v>88.932000000000002</v>
+      </c>
+      <c r="K29" s="13">
+        <v>93.947000000000003</v>
+      </c>
+      <c r="P29" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>150</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>-1.9767999999999999</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>-141.08000000000001</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>-135.19999999999999</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <v>-149.46</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="G30" s="14">
+        <v>30</v>
+      </c>
+      <c r="H30" s="19">
+        <v>-1.5645</v>
+      </c>
+      <c r="I30" s="2">
+        <v>150.57</v>
+      </c>
+      <c r="J30" s="19">
+        <v>135.68</v>
+      </c>
+      <c r="K30" s="13">
+        <v>142.03</v>
+      </c>
+      <c r="O30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="21">
+        <f>(J48+L48+N48)/3</f>
+        <v>215.53666666666666</v>
+      </c>
+      <c r="R30">
+        <f>(P30+(-P31))/10</f>
+        <v>42.421666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>170</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>-2.0415000000000001</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>-181.16</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
         <v>-175.15</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="4">
         <v>-195.67</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="G31" s="14">
+        <v>10</v>
+      </c>
+      <c r="H31" s="19">
+        <v>-1.5047999999999999</v>
+      </c>
+      <c r="I31" s="2">
+        <v>198.97</v>
+      </c>
+      <c r="J31" s="19">
+        <v>177.51</v>
+      </c>
+      <c r="K31" s="13">
+        <v>184.28</v>
+      </c>
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="21">
+        <f>(J38+L38+N38)/3</f>
+        <v>-208.67999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>180</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>-2.0804999999999998</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>-204.52</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>-198.82</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="4">
         <v>-222.7</v>
       </c>
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>-1.4666999999999999</v>
+      </c>
+      <c r="I32" s="3">
+        <v>230.76</v>
+      </c>
+      <c r="J32" s="7">
+        <v>204.62</v>
+      </c>
+      <c r="K32" s="16">
+        <v>211.23</v>
+      </c>
+      <c r="O32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32" s="21">
+        <f>P30-P31</f>
+        <v>424.21666666666664</v>
+      </c>
+    </row>
+    <row r="36" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G38" s="32">
+        <v>180</v>
+      </c>
+      <c r="H38" s="2">
+        <f>-10000*(H22/10)</f>
+        <v>2080.5</v>
+      </c>
+      <c r="I38" s="13">
+        <f>H$43-H38</f>
+        <v>-315.09999999999991</v>
+      </c>
+      <c r="J38" s="26">
+        <v>-204.52</v>
+      </c>
+      <c r="K38" s="23">
+        <f>P38-J38</f>
+        <v>-7.5883333333333383</v>
+      </c>
+      <c r="L38" s="22">
+        <v>-198.82</v>
+      </c>
+      <c r="M38" s="22">
+        <f>P38-L38</f>
+        <v>-13.288333333333355</v>
+      </c>
+      <c r="N38" s="26">
+        <v>-222.7</v>
+      </c>
+      <c r="O38" s="23">
+        <f>P38-N38</f>
+        <v>10.59166666666664</v>
+      </c>
+      <c r="P38" s="23">
+        <f t="shared" ref="P38:P41" si="0">P39-$R$30</f>
+        <v>-212.10833333333335</v>
+      </c>
+      <c r="Q38" s="20"/>
+    </row>
+    <row r="39" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G39" s="32">
+        <v>170</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" ref="H39:H48" si="1">-10000*(H23/10)</f>
+        <v>2041.5</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" ref="I39:I48" si="2">H$43-H39</f>
+        <v>-276.09999999999991</v>
+      </c>
+      <c r="J39" s="26">
+        <v>-181.16</v>
+      </c>
+      <c r="K39" s="23">
+        <f>P39-J39</f>
+        <v>11.473333333333329</v>
+      </c>
+      <c r="L39" s="22">
+        <v>-175.15</v>
+      </c>
+      <c r="M39" s="22">
+        <f>P39-L39</f>
+        <v>5.4633333333333383</v>
+      </c>
+      <c r="N39" s="26">
+        <v>-195.67</v>
+      </c>
+      <c r="O39" s="23">
+        <f t="shared" ref="O39:O48" si="3">P39-N39</f>
+        <v>25.98333333333332</v>
+      </c>
+      <c r="P39" s="23">
+        <f t="shared" si="0"/>
+        <v>-169.68666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G40" s="32">
+        <v>150</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>1976.8</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="2"/>
+        <v>-211.39999999999986</v>
+      </c>
+      <c r="J40" s="26">
+        <v>-141.08000000000001</v>
+      </c>
+      <c r="K40" s="23">
+        <f>P40-J40</f>
+        <v>13.815000000000012</v>
+      </c>
+      <c r="L40" s="22">
+        <v>-135.19999999999999</v>
+      </c>
+      <c r="M40" s="22">
+        <f>P40-L40</f>
+        <v>7.9349999999999881</v>
+      </c>
+      <c r="N40" s="26">
+        <v>-149.46</v>
+      </c>
+      <c r="O40" s="23">
+        <f t="shared" si="3"/>
+        <v>22.195000000000007</v>
+      </c>
+      <c r="P40" s="23">
+        <f t="shared" si="0"/>
+        <v>-127.265</v>
+      </c>
+    </row>
+    <row r="41" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G41" s="32">
+        <v>130</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>1905.1000000000001</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="2"/>
+        <v>-139.70000000000005</v>
+      </c>
+      <c r="J41" s="26">
+        <v>-94.335999999999999</v>
+      </c>
+      <c r="K41" s="23">
+        <f>P41-J41</f>
+        <v>9.4926666666666648</v>
+      </c>
+      <c r="L41" s="22">
+        <v>-89.805000000000007</v>
+      </c>
+      <c r="M41" s="22">
+        <f>P41-L41</f>
+        <v>4.9616666666666731</v>
+      </c>
+      <c r="N41" s="26">
+        <v>-98.126000000000005</v>
+      </c>
+      <c r="O41" s="23">
+        <f t="shared" si="3"/>
+        <v>13.282666666666671</v>
+      </c>
+      <c r="P41" s="23">
+        <f t="shared" si="0"/>
+        <v>-84.843333333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G42" s="32">
+        <v>110</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>1835.7</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="2"/>
+        <v>-70.299999999999955</v>
+      </c>
+      <c r="J42" s="26">
+        <v>-48.116</v>
+      </c>
+      <c r="K42" s="23">
+        <f>P42-J42</f>
+        <v>5.6943333333333328</v>
+      </c>
+      <c r="L42" s="22">
+        <v>-45.134999999999998</v>
+      </c>
+      <c r="M42" s="22">
+        <f>P42-L42</f>
+        <v>2.7133333333333312</v>
+      </c>
+      <c r="N42" s="26">
+        <v>-48.953000000000003</v>
+      </c>
+      <c r="O42" s="23">
+        <f t="shared" si="3"/>
+        <v>6.5313333333333361</v>
+      </c>
+      <c r="P42" s="23">
+        <f>P43-$R$30</f>
+        <v>-42.421666666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G43" s="32">
+        <v>90</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>1765.4</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="26">
+        <v>0</v>
+      </c>
+      <c r="K43" s="23">
+        <f>P43-J43</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="22">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <f>P43-L43</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="26">
+        <v>0</v>
+      </c>
+      <c r="O43" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="23">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G44" s="32">
+        <v>70</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>1696.8</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="2"/>
+        <v>68.600000000000136</v>
+      </c>
+      <c r="J44" s="26">
+        <v>49.042999999999999</v>
+      </c>
+      <c r="K44" s="23">
+        <f>P44-J44</f>
+        <v>-6.6213333333333324</v>
+      </c>
+      <c r="L44" s="22">
+        <v>45.530999999999999</v>
+      </c>
+      <c r="M44" s="22">
+        <f>P44-L44</f>
+        <v>-3.109333333333332</v>
+      </c>
+      <c r="N44" s="26">
+        <v>48.470999999999997</v>
+      </c>
+      <c r="O44" s="23">
+        <f t="shared" si="3"/>
+        <v>-6.0493333333333297</v>
+      </c>
+      <c r="P44" s="23">
+        <f>P43+R$30</f>
+        <v>42.421666666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G45" s="32">
+        <v>50</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>1632.5</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="2"/>
+        <v>132.90000000000009</v>
+      </c>
+      <c r="J45" s="26">
+        <v>97.644999999999996</v>
+      </c>
+      <c r="K45" s="23">
+        <f>P45-J45</f>
+        <v>-12.801666666666662</v>
+      </c>
+      <c r="L45" s="22">
+        <v>88.932000000000002</v>
+      </c>
+      <c r="M45" s="22">
+        <f>P45-L45</f>
+        <v>-4.0886666666666684</v>
+      </c>
+      <c r="N45" s="26">
+        <v>93.947000000000003</v>
+      </c>
+      <c r="O45" s="23">
+        <f t="shared" si="3"/>
+        <v>-9.103666666666669</v>
+      </c>
+      <c r="P45" s="23">
+        <f>P44+R$30</f>
+        <v>84.843333333333334</v>
+      </c>
+    </row>
+    <row r="46" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G46" s="32">
+        <v>30</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>1564.5</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" si="2"/>
+        <v>200.90000000000009</v>
+      </c>
+      <c r="J46" s="26">
+        <v>150.57</v>
+      </c>
+      <c r="K46" s="23">
+        <f>P46-J46</f>
+        <v>-23.304999999999993</v>
+      </c>
+      <c r="L46" s="22">
+        <v>135.68</v>
+      </c>
+      <c r="M46" s="22">
+        <f>P46-L46</f>
+        <v>-8.4150000000000063</v>
+      </c>
+      <c r="N46" s="26">
+        <v>142.03</v>
+      </c>
+      <c r="O46" s="23">
+        <f t="shared" si="3"/>
+        <v>-14.765000000000001</v>
+      </c>
+      <c r="P46" s="23">
+        <f>P45+R$30</f>
+        <v>127.265</v>
+      </c>
+    </row>
+    <row r="47" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G47" s="32">
+        <v>10</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>1504.8</v>
+      </c>
+      <c r="I47" s="13">
+        <f t="shared" si="2"/>
+        <v>260.60000000000014</v>
+      </c>
+      <c r="J47" s="26">
+        <v>198.97</v>
+      </c>
+      <c r="K47" s="23">
+        <f>P47-J47</f>
+        <v>-29.283333333333331</v>
+      </c>
+      <c r="L47" s="22">
+        <v>177.51</v>
+      </c>
+      <c r="M47" s="22">
+        <f>P47-L47</f>
+        <v>-7.8233333333333235</v>
+      </c>
+      <c r="N47" s="26">
+        <v>184.28</v>
+      </c>
+      <c r="O47" s="23">
+        <f t="shared" si="3"/>
+        <v>-14.593333333333334</v>
+      </c>
+      <c r="P47" s="23">
+        <f>P46+R$30</f>
+        <v>169.68666666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="1"/>
+        <v>1466.7</v>
+      </c>
+      <c r="I48" s="16">
+        <f t="shared" si="2"/>
+        <v>298.70000000000005</v>
+      </c>
+      <c r="J48" s="27">
+        <v>230.76</v>
+      </c>
+      <c r="K48" s="25">
+        <f>P48-J48</f>
+        <v>-18.651666666666642</v>
+      </c>
+      <c r="L48" s="24">
+        <v>204.62</v>
+      </c>
+      <c r="M48" s="24">
+        <f>P48-L48</f>
+        <v>7.4883333333333439</v>
+      </c>
+      <c r="N48" s="27">
+        <v>211.23</v>
+      </c>
+      <c r="O48" s="25">
+        <f t="shared" si="3"/>
+        <v>0.87833333333335872</v>
+      </c>
+      <c r="P48" s="25">
+        <f>P47+R$30</f>
+        <v>212.10833333333335</v>
+      </c>
+    </row>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="20"/>
+    </row>
+    <row r="50" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/cv_13/data/dvora135_EMB-cv_13-data.xlsx
+++ b/cv_13/data/dvora135_EMB-cv_13-data.xlsx
@@ -8,13 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvorakj/Disk Google/Sdílené složky/Škola_shared/3_semestr/EMB/Cv/Protokoly/cv_13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86AAF9-AFE5-6346-A0E2-0FA60ADC9363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AB874A-79A9-CB47-B837-B14E737534C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{A2B26420-1ED1-6C44-96BC-EA2064606AC4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A2B26420-1ED1-6C44-96BC-EA2064606AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">List1!$J$55:$J$65</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">List1!$K$55:$K$65</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">List1!$L$55:$L$65</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">List1!$M$55:$M$65</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">List1!$J$55:$J$65</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">List1!$K$55:$K$65</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">List1!$L$55:$L$65</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">List1!$M$55:$M$65</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">List1!$L$55:$L$65</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">List1!$M$55:$M$65</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">List1!$J$55:$J$65</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">List1!$K$55:$K$65</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -380,6 +394,1445 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1067885248442957"/>
+          <c:y val="5.1160092637487713E-2"/>
+          <c:w val="0.84733953525387284"/>
+          <c:h val="0.75969027766594444"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$J$55:$J$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$K$55:$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-7.5883333333333383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.473333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.815000000000012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4926666666666648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6943333333333328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.6213333333333324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12.801666666666662</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-23.304999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-29.283333333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-18.651666666666642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-468F-AC40-B24E-DDDF2A18F340}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$J$55:$J$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$L$55:$L$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-13.288333333333355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4633333333333383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9349999999999881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9616666666666731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7133333333333312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.109333333333332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.0886666666666684</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.4150000000000063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.8233333333333235</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4883333333333439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-468F-AC40-B24E-DDDF2A18F340}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$J$55:$J$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$M$55:$M$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.59166666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.98333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.195000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.282666666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5313333333333361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.0493333333333297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.103666666666669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-14.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-14.593333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87833333333335872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-468F-AC40-B24E-DDDF2A18F340}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="883219840"/>
+        <c:axId val="883221488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="883219840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="180"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="883221488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="883221488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="883219840"/>
+        <c:crossesAt val="-40"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17347985226685927"/>
+          <c:y val="7.4450811972272005E-2"/>
+          <c:w val="0.11403670629883589"/>
+          <c:h val="0.21965432490287798"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>846667</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>35830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>217352</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>154678</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graf 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16BA6C4-FFB6-0F42-911E-90D140C95BA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03297</cdr:x>
+      <cdr:y>0.59508</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.2181</cdr:x>
+      <cdr:y>0.92994</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextovéPole 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDA2FFF-0479-2F4C-B9CB-66E4ABFC4FDB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="1800000">
+          <a:off x="162821" y="1624938"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00613</cdr:x>
+      <cdr:y>0.3029</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05722</cdr:x>
+      <cdr:y>0.75905</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextovéPole 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11B75B3-08B9-614D-9A4C-F8F3D849A9E6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-469955" y="1326631"/>
+          <a:ext cx="1245577" cy="246549"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>Odchylka </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Δ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>U (mV)</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.3425</cdr:x>
+      <cdr:y>0.88118</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64114</cdr:x>
+      <cdr:y>0.97257</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextovéPole 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641AFC04-8D97-374B-BA87-FC033A0301FB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1652626" y="2615538"/>
+          <a:ext cx="1440962" cy="271260"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>Výchylka snímače </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (°)</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
@@ -677,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8311B3C-6673-7046-89A2-475A6EA545FE}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E23" zoomScale="117" workbookViewId="0">
-      <selection activeCell="P48" sqref="G37:P48"/>
+    <sheetView tabSelected="1" topLeftCell="L45" zoomScale="190" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1916,13 +3369,168 @@
         <v>212.10833333333335</v>
       </c>
     </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:15" x14ac:dyDescent="0.2">
       <c r="O49" s="20"/>
     </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:15" x14ac:dyDescent="0.2">
       <c r="O50" s="20"/>
+    </row>
+    <row r="55" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J55" s="32">
+        <v>180</v>
+      </c>
+      <c r="K55">
+        <v>-7.5883333333333383</v>
+      </c>
+      <c r="L55">
+        <v>-13.288333333333355</v>
+      </c>
+      <c r="M55">
+        <v>10.59166666666664</v>
+      </c>
+    </row>
+    <row r="56" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J56" s="32">
+        <v>170</v>
+      </c>
+      <c r="K56">
+        <v>11.473333333333329</v>
+      </c>
+      <c r="L56">
+        <v>5.4633333333333383</v>
+      </c>
+      <c r="M56">
+        <v>25.98333333333332</v>
+      </c>
+    </row>
+    <row r="57" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J57" s="32">
+        <v>150</v>
+      </c>
+      <c r="K57">
+        <v>13.815000000000012</v>
+      </c>
+      <c r="L57">
+        <v>7.9349999999999881</v>
+      </c>
+      <c r="M57">
+        <v>22.195000000000007</v>
+      </c>
+    </row>
+    <row r="58" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J58" s="32">
+        <v>130</v>
+      </c>
+      <c r="K58">
+        <v>9.4926666666666648</v>
+      </c>
+      <c r="L58">
+        <v>4.9616666666666731</v>
+      </c>
+      <c r="M58">
+        <v>13.282666666666671</v>
+      </c>
+    </row>
+    <row r="59" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J59" s="32">
+        <v>110</v>
+      </c>
+      <c r="K59">
+        <v>5.6943333333333328</v>
+      </c>
+      <c r="L59">
+        <v>2.7133333333333312</v>
+      </c>
+      <c r="M59">
+        <v>6.5313333333333361</v>
+      </c>
+    </row>
+    <row r="60" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J60" s="32">
+        <v>90</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J61" s="32">
+        <v>70</v>
+      </c>
+      <c r="K61">
+        <v>-6.6213333333333324</v>
+      </c>
+      <c r="L61">
+        <v>-3.109333333333332</v>
+      </c>
+      <c r="M61">
+        <v>-6.0493333333333297</v>
+      </c>
+    </row>
+    <row r="62" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J62" s="32">
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <v>-12.801666666666662</v>
+      </c>
+      <c r="L62">
+        <v>-4.0886666666666684</v>
+      </c>
+      <c r="M62">
+        <v>-9.103666666666669</v>
+      </c>
+    </row>
+    <row r="63" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J63" s="32">
+        <v>30</v>
+      </c>
+      <c r="K63">
+        <v>-23.304999999999993</v>
+      </c>
+      <c r="L63">
+        <v>-8.4150000000000063</v>
+      </c>
+      <c r="M63">
+        <v>-14.765000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J64" s="32">
+        <v>10</v>
+      </c>
+      <c r="K64">
+        <v>-29.283333333333331</v>
+      </c>
+      <c r="L64">
+        <v>-7.8233333333333235</v>
+      </c>
+      <c r="M64">
+        <v>-14.593333333333334</v>
+      </c>
+    </row>
+    <row r="65" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J65" s="6">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>-18.651666666666642</v>
+      </c>
+      <c r="L65">
+        <v>7.4883333333333439</v>
+      </c>
+      <c r="M65">
+        <v>0.87833333333335872</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>